--- a/ShowRealTime/mytranslation.xlsx
+++ b/ShowRealTime/mytranslation.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\py\ballmill\handleTestData\pythonProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\C#\study\Mod\ShowRealTime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D154BD9C-84D6-445B-9F93-D90567C63099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801AC840-9284-4C43-AE6A-464C71C352DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7272" yWindow="3900" windowWidth="23040" windowHeight="12072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>TimeReminder</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>Set UI Position By Yourself</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetUIPositionNotice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If enabled, you can set the start position(top left corner) of the clock ui. The UI width is 92,height is 80.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用后UI将在你设置的位置，设置点是左上角，UI宽92，高80.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,17 +437,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.88671875" customWidth="1"/>
     <col min="2" max="2" width="41.21875" customWidth="1"/>
-    <col min="3" max="3" width="52.44140625" customWidth="1"/>
+    <col min="3" max="3" width="77.6640625" customWidth="1"/>
     <col min="4" max="4" width="31.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -534,6 +546,20 @@
         <v>18</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
